--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
   <si>
     <t>Row</t>
   </si>
@@ -47,6 +47,18 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>PARTREV</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MAXIMUM_PACKAGE_HEIGHT</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -83,12 +95,12 @@
     <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://www.digikey.ch/en/products/detail/vishay-beyschlag-draloric-bc-components/K104K20X7RH5TL2/286568</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -368,6 +380,30 @@
     <t>14</t>
   </si>
   <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>CUI Inc.</t>
+  </si>
+  <si>
+    <t>11.70mm</t>
+  </si>
+  <si>
+    <t>Manufacturer Recommendations</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -386,7 +422,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>R3</t>
@@ -398,7 +434,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>R1</t>
@@ -410,7 +446,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -422,7 +458,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -446,7 +482,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>SW5</t>
@@ -455,19 +491,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>SW2</t>
@@ -476,7 +512,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>SW3</t>
@@ -485,7 +521,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -509,7 +545,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW7</t>
@@ -518,7 +554,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -539,7 +575,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Pico</t>
@@ -596,7 +632,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>58 (0 SMD/ 56 THT)</t>
+    <t>59 (0 SMD/ 56 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1114,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1127,19 +1163,23 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="14" max="14" width="60.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1150,78 +1190,82 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F6" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1258,1036 +1302,1422 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="60" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="F29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="I29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="60" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="I30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="I31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="I32" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="J32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
+      <c r="O32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>22</v>
+        <v>178</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2308,22 +2738,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
   <si>
     <t>Row</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>PARTREV</t>
-  </si>
-  <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
-    <t>MAXIMUM_PACKAGE_HEIGHT</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -77,6 +65,30 @@
     <t>C</t>
   </si>
   <si>
+    <t>C18 C19</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C_Disc_D7.5mm_W4.4mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/C330C102JHR5TA/1465599</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
   </si>
   <si>
@@ -89,19 +101,55 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.digikey.ch/en/products/detail/vishay-beyschlag-draloric-bc-components/K104K20X7RH5TL2/286568</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17</t>
+  </si>
+  <si>
+    <t>4.7uF 50V</t>
+  </si>
+  <si>
+    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/kemet/C322C475K5R5TA/3726055</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cornell-dubilier-illinois-capacitor/227AVG050MGBJ/5411698</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
@@ -128,7 +176,7 @@
     <t>1=K 2=A</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
@@ -155,7 +203,43 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with a mounting pin</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-devices/PJ-063AH/2161208</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -173,9 +257,6 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
@@ -200,7 +281,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>6</t>
+    <t>11</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -224,9 +305,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -248,7 +326,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>8</t>
+    <t>13</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -272,7 +350,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -296,6 +374,9 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
@@ -317,7 +398,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>11</t>
+    <t>16</t>
   </si>
   <si>
     <t>J7</t>
@@ -335,6 +416,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>USB Type A connector</t>
   </si>
   <si>
@@ -353,7 +437,22 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>13</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -377,7 +476,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>14</t>
+    <t>20</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -389,19 +488,13 @@
     <t>CONV_PDQE15-Q24-S5-D</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
-  </si>
-  <si>
-    <t>11.70mm</t>
-  </si>
-  <si>
-    <t>Manufacturer Recommendations</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -422,7 +515,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>16</t>
+    <t>22</t>
   </si>
   <si>
     <t>R3</t>
@@ -434,7 +527,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>17</t>
+    <t>23</t>
   </si>
   <si>
     <t>R1</t>
@@ -446,7 +539,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>18</t>
+    <t>24</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -458,7 +551,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>19</t>
+    <t>25</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -482,7 +575,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>20</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW5</t>
@@ -491,19 +584,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>21</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>22</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>23</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW2</t>
@@ -512,7 +605,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>24</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW3</t>
@@ -521,7 +614,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>25</t>
+    <t>31</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -545,7 +638,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>26</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW7</t>
@@ -554,9 +647,6 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -575,7 +665,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>28</t>
+    <t>34</t>
   </si>
   <si>
     <t>Pico</t>
@@ -632,7 +722,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>59 (0 SMD/ 56 THT)</t>
+    <t>69 (0 SMD/ 57 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1150,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1161,25 +1251,21 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1"/>
-    <col min="14" max="14" width="60.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" customHeight="1">
+    <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1190,82 +1276,78 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="F2" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F6" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1302,1422 +1384,1302 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="K9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="K10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="J12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="K12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="J13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="K13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="11" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="60" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="J15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="J17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="F18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="J18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="J19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="J21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="K21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="K22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="J23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="K23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="E24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="F24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="G24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J24" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="K24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="K25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="C26" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="K27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="B28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>25</v>
+      <c r="J28" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="H32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>25</v>
+      <c r="J32" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>25</v>
+        <v>183</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>182</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>25</v>
+      <c r="J35" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="K36" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="C1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -2738,22 +2700,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="248">
   <si>
     <t>Row</t>
   </si>
@@ -215,7 +215,16 @@
     <t>F1</t>
   </si>
   <si>
-    <t>~</t>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
     <t>8</t>
@@ -452,6 +461,15 @@
     <t>2.2uH</t>
   </si>
   <si>
+    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -722,7 +740,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 57 THT)</t>
+    <t>69 (0 SMD/ 67 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1265,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1279,13 +1297,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F2" s="3">
         <v>34</v>
@@ -1293,41 +1311,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1335,13 +1353,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F6" s="3">
         <v>69</v>
@@ -1613,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -1627,10 +1645,10 @@
         <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>12</v>
@@ -1638,11 +1656,11 @@
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>22</v>
+      <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>22</v>
@@ -1653,22 +1671,22 @@
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -1677,10 +1695,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>22</v>
@@ -1691,22 +1709,22 @@
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>43</v>
@@ -1715,10 +1733,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -1732,19 +1750,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>12</v>
@@ -1753,10 +1771,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -1767,22 +1785,22 @@
     </row>
     <row r="19" spans="1:12" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1791,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -1808,19 +1826,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>18</v>
@@ -1829,10 +1847,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -1843,22 +1861,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1867,10 +1885,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -1881,22 +1899,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
@@ -1905,10 +1923,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -1919,22 +1937,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -1943,10 +1961,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -1957,22 +1975,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -1981,10 +1999,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -1995,22 +2013,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2019,10 +2037,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2031,24 +2049,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>22</v>
+        <v>146</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2056,11 +2074,11 @@
       <c r="H26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>22</v>
+      <c r="I26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2071,22 +2089,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>43</v>
@@ -2095,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2109,22 +2127,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2133,10 +2151,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2147,22 +2165,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2171,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2185,22 +2203,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2209,10 +2227,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2223,22 +2241,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2247,10 +2265,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2261,22 +2279,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>18</v>
@@ -2285,10 +2303,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2299,22 +2317,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2323,10 +2341,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2337,22 +2355,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2361,10 +2379,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2375,22 +2393,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2399,10 +2417,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2413,22 +2431,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2437,10 +2455,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2451,22 +2469,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2475,10 +2493,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2489,22 +2507,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2513,10 +2531,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2527,22 +2545,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2551,10 +2569,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2565,22 +2583,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2589,10 +2607,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -2603,22 +2621,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2627,10 +2645,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -2641,22 +2659,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2665,10 +2683,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -2700,22 +2718,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="254">
   <si>
     <t>Row</t>
   </si>
@@ -251,6 +251,21 @@
     <t>9</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -314,6 +329,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -335,7 +353,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -359,7 +377,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -383,7 +401,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -407,7 +425,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>J7</t>
@@ -425,7 +443,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -446,7 +464,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -470,7 +488,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -494,7 +512,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -512,7 +530,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -533,7 +551,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>R3</t>
@@ -545,7 +563,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R1</t>
@@ -557,7 +575,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -569,7 +587,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -593,7 +611,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW5</t>
@@ -602,19 +620,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW2</t>
@@ -623,7 +641,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW3</t>
@@ -632,7 +650,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -656,15 +674,15 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW7</t>
   </si>
   <si>
     <t>VOL Rotary</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -683,7 +701,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Pico</t>
@@ -740,7 +758,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 67 THT)</t>
+    <t>70 (0 SMD/ 68 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1258,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1283,7 +1301,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1297,55 +1315,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F2" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1353,16 +1371,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F6" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1707,7 +1725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
+    <row r="17" spans="1:12" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -1721,22 +1739,22 @@
         <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>82</v>
+      <c r="J17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -1750,57 +1768,57 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1809,10 +1827,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -1821,36 +1839,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+    <row r="20" spans="1:12" ht="60" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -1861,22 +1879,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1885,10 +1903,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -1899,34 +1917,34 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -1937,22 +1955,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -1961,10 +1979,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -1975,13 +1993,13 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>130</v>
@@ -2016,19 +2034,19 @@
         <v>135</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2037,10 +2055,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2051,22 +2069,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2075,10 +2093,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2089,34 +2107,34 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2127,25 +2145,25 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>19</v>
@@ -2167,20 +2185,20 @@
       <c r="A29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2189,10 +2207,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2203,22 +2221,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2227,10 +2245,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2241,22 +2259,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2265,10 +2283,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2279,34 +2297,34 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2317,13 +2335,13 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>186</v>
@@ -2332,19 +2350,19 @@
         <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2355,13 +2373,13 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>192</v>
@@ -2370,7 +2388,7 @@
         <v>193</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2379,10 +2397,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2393,22 +2411,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2417,10 +2435,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2431,22 +2449,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2455,10 +2473,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2469,22 +2487,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2493,10 +2511,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2507,22 +2525,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2531,10 +2549,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2545,22 +2563,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2569,10 +2587,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2583,13 +2601,13 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>213</v>
@@ -2598,7 +2616,7 @@
         <v>214</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2607,10 +2625,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -2621,22 +2639,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2645,10 +2663,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -2659,10 +2677,10 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>222</v>
@@ -2692,6 +2710,44 @@
         <v>22</v>
       </c>
       <c r="L42" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2718,22 +2774,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -230,22 +230,25 @@
     <t>8</t>
   </si>
   <si>
-    <t>DC Barrel Jack with a mounting pin</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>J13</t>
   </si>
   <si>
     <t>Barrel_Jack_MountingPin</t>
   </si>
   <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/cui-devices/PJ-063AH/2161208</t>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
     <t>9</t>
@@ -261,9 +264,6 @@
   </si>
   <si>
     <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -1287,7 +1287,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.7109375" customWidth="1"/>
@@ -1701,10 +1701,10 @@
         <v>72</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -1712,11 +1712,11 @@
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>74</v>
+      <c r="I16" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>22</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="17" spans="1:12" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -1751,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>22</v>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="255">
   <si>
     <t>Row</t>
   </si>
@@ -245,25 +245,28 @@
     <t>BarrelJack_Wuerth_6941xx301002</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -1301,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1315,13 +1318,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1329,41 +1332,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -1712,7 +1715,7 @@
       <c r="H16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -1751,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>22</v>
@@ -1768,19 +1771,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -1789,10 +1792,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -1803,22 +1806,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1827,10 +1830,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -1844,19 +1847,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1865,10 +1868,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -1879,22 +1882,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1903,10 +1906,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -1917,22 +1920,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1941,10 +1944,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -1955,22 +1958,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -1979,10 +1982,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -1993,22 +1996,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2017,10 +2020,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2031,22 +2034,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2055,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2069,22 +2072,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2093,10 +2096,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2107,22 +2110,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2131,10 +2134,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2145,22 +2148,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2169,10 +2172,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2183,22 +2186,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2207,10 +2210,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2221,22 +2224,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2245,10 +2248,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2259,22 +2262,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2283,10 +2286,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2297,22 +2300,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2321,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2335,22 +2338,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2359,10 +2362,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2373,22 +2376,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2397,10 +2400,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2411,22 +2414,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2435,10 +2438,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2449,22 +2452,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2473,10 +2476,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2487,22 +2490,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2511,10 +2514,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2525,22 +2528,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2549,10 +2552,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2563,22 +2566,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2587,10 +2590,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2601,22 +2604,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2625,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -2639,22 +2642,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2663,10 +2666,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -2677,22 +2680,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2701,10 +2704,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -2715,22 +2718,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2739,10 +2742,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -2774,22 +2777,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -113,7 +113,7 @@
     <t>C16 C17</t>
   </si>
   <si>
-    <t>4.7uF 50V</t>
+    <t>4.7uF</t>
   </si>
   <si>
     <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
@@ -503,7 +503,7 @@
     <t>L1 L2 L3 L4 L5</t>
   </si>
   <si>
-    <t>1K@100MHz</t>
+    <t>103_100MHz</t>
   </si>
   <si>
     <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="256">
   <si>
     <t>Row</t>
   </si>
@@ -266,7 +266,10 @@
     <t>PinHeader_1x02_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -1304,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1318,13 +1321,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1332,41 +1335,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1374,13 +1377,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -1753,11 +1756,11 @@
       <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>22</v>
+      <c r="J17" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
@@ -1771,19 +1774,19 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>43</v>
@@ -1792,10 +1795,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -1806,22 +1809,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1830,10 +1833,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -1847,19 +1850,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1868,10 +1871,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -1882,22 +1885,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1906,10 +1909,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -1920,22 +1923,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1944,10 +1947,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -1958,22 +1961,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -1982,10 +1985,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -1996,22 +1999,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2020,10 +2023,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2034,22 +2037,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2058,10 +2061,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2072,22 +2075,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2096,10 +2099,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2110,22 +2113,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2134,10 +2137,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2148,22 +2151,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2172,10 +2175,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2186,22 +2189,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2210,10 +2213,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2224,22 +2227,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2248,10 +2251,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2262,22 +2265,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2286,10 +2289,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2300,22 +2303,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2324,10 +2327,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2362,10 +2365,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2376,22 +2379,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2400,10 +2403,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2414,22 +2417,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2438,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2452,22 +2455,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2476,10 +2479,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2490,22 +2493,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2514,10 +2517,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2528,22 +2531,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2552,10 +2555,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2566,22 +2569,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2590,10 +2593,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2604,22 +2607,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2628,10 +2631,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -2642,22 +2645,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2666,10 +2669,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -2680,22 +2683,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2704,10 +2707,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -2718,22 +2721,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2742,10 +2745,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -2777,22 +2780,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -743,7 +743,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -743,7 +743,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="257">
   <si>
     <t>Row</t>
   </si>
@@ -287,6 +287,9 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
@@ -377,7 +380,7 @@
     <t>CP-2350</t>
   </si>
   <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
@@ -1307,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1321,13 +1324,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1335,41 +1338,41 @@
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1377,13 +1380,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -1798,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>22</v>
@@ -1809,22 +1812,22 @@
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1833,10 +1836,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -1850,19 +1853,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1871,10 +1874,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>22</v>
@@ -1885,22 +1888,22 @@
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1909,10 +1912,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
@@ -1923,22 +1926,22 @@
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1947,10 +1950,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>22</v>
@@ -1961,22 +1964,22 @@
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>12</v>
@@ -1985,10 +1988,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
@@ -1999,22 +2002,22 @@
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2023,10 +2026,10 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>22</v>
@@ -2037,22 +2040,22 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2061,10 +2064,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
@@ -2075,22 +2078,22 @@
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2099,10 +2102,10 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>22</v>
@@ -2113,22 +2116,22 @@
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2137,10 +2140,10 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
@@ -2151,22 +2154,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>43</v>
@@ -2175,10 +2178,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>22</v>
@@ -2189,22 +2192,22 @@
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2213,10 +2216,10 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
@@ -2227,22 +2230,22 @@
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2251,10 +2254,10 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>22</v>
@@ -2265,22 +2268,22 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2289,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
@@ -2303,22 +2306,22 @@
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2327,10 +2330,10 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>22</v>
@@ -2341,22 +2344,22 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>18</v>
@@ -2365,10 +2368,10 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>22</v>
@@ -2379,22 +2382,22 @@
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2403,10 +2406,10 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>22</v>
@@ -2417,22 +2420,22 @@
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2441,10 +2444,10 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2455,22 +2458,22 @@
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2479,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>22</v>
@@ -2493,22 +2496,22 @@
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2517,10 +2520,10 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2531,22 +2534,22 @@
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2555,10 +2558,10 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>22</v>
@@ -2569,22 +2572,22 @@
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2593,10 +2596,10 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2607,22 +2610,22 @@
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2631,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>22</v>
@@ -2645,22 +2648,22 @@
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2669,10 +2672,10 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
@@ -2683,22 +2686,22 @@
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2707,10 +2710,10 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>22</v>
@@ -2721,22 +2724,22 @@
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2745,10 +2748,10 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -2780,22 +2783,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -746,7 +746,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="264">
   <si>
     <t>Row</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Sim.Device</t>
+  </si>
+  <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Sim.Device</t>
-  </si>
-  <si>
-    <t>Sim.Pins</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -83,12 +83,12 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/kemet/C330C102JHR5TA/1465599</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
   </si>
   <si>
@@ -167,18 +167,39 @@
     <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/en/products/detail/onsemi/1N4148/458603</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>1=K 2=A</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>100V 3A General Purpose Rectifier Diode, DO-201AD</t>
+  </si>
+  <si>
+    <t>1N5401</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D_DO-201AD_P15.24mm_Horizontal</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88516/1n5400.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/1N5401G/1485525</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -203,7 +224,7 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -221,13 +242,13 @@
     <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
   </si>
   <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -251,9 +272,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -272,6 +290,9 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -293,9 +314,6 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -317,6 +335,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -338,7 +359,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -362,7 +383,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -386,7 +407,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -410,7 +431,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -434,7 +455,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>J7</t>
@@ -452,7 +473,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -473,7 +494,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -497,7 +518,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -521,7 +542,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -539,7 +560,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -560,7 +581,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R3</t>
@@ -572,7 +593,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R1</t>
@@ -584,7 +605,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -596,7 +617,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -620,7 +641,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW5</t>
@@ -629,19 +650,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW2</t>
@@ -650,7 +671,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW3</t>
@@ -659,9 +680,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -683,13 +701,16 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW7</t>
   </si>
   <si>
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -710,7 +731,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Pico</t>
@@ -767,7 +788,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>70 (0 SMD/ 68 THT)</t>
+    <t>71 (0 SMD/ 69 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1285,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1303,14 +1324,14 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1324,55 +1345,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F2" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1380,16 +1401,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F6" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1458,13 +1479,13 @@
       <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1496,14 +1517,14 @@
       <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
@@ -1534,14 +1555,14 @@
       <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
@@ -1572,14 +1593,14 @@
       <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1">
@@ -1634,86 +1655,86 @@
         <v>55</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="J14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>12</v>
@@ -1722,33 +1743,33 @@
         <v>19</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="60" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>81</v>
@@ -1762,19 +1783,19 @@
       <c r="I17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="60" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>84</v>
@@ -1786,86 +1807,86 @@
         <v>86</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1874,74 +1895,74 @@
         <v>19</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="60" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1950,74 +1971,74 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>12</v>
@@ -2026,36 +2047,36 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2064,33 +2085,33 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>148</v>
@@ -2104,14 +2125,14 @@
       <c r="I26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
@@ -2128,10 +2149,10 @@
         <v>154</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2140,62 +2161,62 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>168</v>
@@ -2204,36 +2225,36 @@
         <v>169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="6" t="s">
         <v>172</v>
       </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="10" t="s">
         <v>174</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>175</v>
@@ -2242,7 +2263,7 @@
         <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>177</v>
@@ -2256,14 +2277,14 @@
       <c r="I30" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
@@ -2271,19 +2292,19 @@
         <v>180</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>12</v>
@@ -2292,36 +2313,36 @@
         <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2330,112 +2351,112 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="C35" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2444,36 +2465,36 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2482,36 +2503,36 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2520,36 +2541,36 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2558,36 +2579,36 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2596,36 +2617,36 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2634,36 +2655,36 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2672,36 +2693,36 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2710,36 +2731,36 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>22</v>
+      <c r="B43" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2748,16 +2769,54 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J43" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="J43" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="K43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2783,22 +2842,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -218,10 +218,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12986/5673799</t>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
   </si>
   <si>
     <t>8</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="271">
   <si>
     <t>Row</t>
   </si>
@@ -200,6 +200,27 @@
     <t>7</t>
   </si>
   <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_DO-41_SOD81_P10.16mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5817-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/onsemi/1N5817RLG/807254</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -224,7 +245,7 @@
     <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -248,9 +269,6 @@
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -272,6 +290,9 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -290,9 +311,6 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -335,7 +356,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -359,7 +380,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -383,7 +404,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -407,7 +428,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -431,7 +452,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -455,7 +476,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>J7</t>
@@ -473,7 +494,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -494,7 +515,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -518,7 +539,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -542,7 +563,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -560,7 +581,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -581,7 +602,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R3</t>
@@ -593,7 +614,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R1</t>
@@ -605,7 +626,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -617,7 +638,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -641,7 +662,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW5</t>
@@ -650,19 +671,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW2</t>
@@ -671,15 +692,15 @@
     <t>E</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -701,7 +722,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW7</t>
@@ -710,7 +731,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -731,7 +752,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Pico</t>
@@ -788,7 +809,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>71 (0 SMD/ 69 THT)</t>
+    <t>72 (0 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1306,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1331,7 +1352,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1345,55 +1366,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F2" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1401,16 +1422,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1693,86 +1714,86 @@
         <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="J15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -1781,33 +1802,33 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="60" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>87</v>
@@ -1831,7 +1852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
+    <row r="19" spans="1:12" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -1845,28 +1866,28 @@
         <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
@@ -1874,57 +1895,57 @@
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="60" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>12</v>
@@ -1933,74 +1954,74 @@
         <v>19</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="60" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>18</v>
@@ -2009,74 +2030,74 @@
         <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>12</v>
@@ -2085,36 +2106,36 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="C26" s="11" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2123,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
@@ -2132,24 +2153,24 @@
         <v>21</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>155</v>
@@ -2187,10 +2208,10 @@
         <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2199,62 +2220,62 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>175</v>
@@ -2263,19 +2284,19 @@
         <v>176</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>21</v>
@@ -2284,15 +2305,15 @@
         <v>21</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="6" t="s">
         <v>181</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>182</v>
@@ -2301,7 +2322,7 @@
         <v>183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>184</v>
@@ -2330,19 +2351,19 @@
         <v>187</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2351,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>21</v>
@@ -2360,27 +2381,27 @@
         <v>21</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2389,7 +2410,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>21</v>
@@ -2398,36 +2419,36 @@
         <v>21</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2436,65 +2457,65 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="C36" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>12</v>
@@ -2503,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>21</v>
@@ -2512,27 +2533,27 @@
         <v>21</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2541,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>21</v>
@@ -2550,27 +2571,27 @@
         <v>21</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2579,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -2588,27 +2609,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2617,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -2626,27 +2647,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2655,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -2664,27 +2685,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2693,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -2702,27 +2723,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="C42" s="11" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2731,7 +2752,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -2740,27 +2761,27 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2769,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -2778,27 +2799,27 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>21</v>
+      <c r="B44" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -2807,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -2816,7 +2837,45 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2842,22 +2901,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -788,7 +788,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>2.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="277">
   <si>
     <t>Row</t>
   </si>
@@ -269,6 +269,24 @@
     <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
   </si>
   <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -290,9 +308,6 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/694106301002/5047522</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -311,6 +326,9 @@
     <t>https://www.digikey.ch/de/products/detail/amphenol-cs-fci/68016-202HLF/4273561</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -332,7 +350,7 @@
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -356,7 +374,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021821/16608657</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -380,7 +398,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -404,7 +422,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -428,7 +446,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -452,7 +470,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -476,7 +494,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>J7</t>
@@ -494,7 +512,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -515,7 +533,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -539,7 +557,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -563,7 +581,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -581,7 +599,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -602,7 +620,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R3</t>
@@ -614,7 +632,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R1</t>
@@ -626,7 +644,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -638,7 +656,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -662,7 +680,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW5</t>
@@ -671,34 +689,34 @@
     <t>B</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -722,7 +740,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>SW7</t>
@@ -731,7 +749,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -752,7 +770,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Pico</t>
@@ -809,7 +827,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>72 (0 SMD/ 70 THT)</t>
+    <t>74 (2 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1327,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1352,7 +1370,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1366,55 +1384,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F2" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1422,16 +1440,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1814,7 +1832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
         <v>72</v>
       </c>
@@ -1827,49 +1845,49 @@
       <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>12</v>
@@ -1878,112 +1896,112 @@
         <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="60" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="J20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="G21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="60" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
@@ -1992,74 +2010,74 @@
         <v>19</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>18</v>
@@ -2068,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>21</v>
@@ -2077,65 +2095,65 @@
         <v>21</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>12</v>
@@ -2144,7 +2162,7 @@
         <v>19</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>21</v>
@@ -2153,18 +2171,18 @@
         <v>21</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>153</v>
@@ -2199,19 +2217,19 @@
         <v>158</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>12</v>
@@ -2220,36 +2238,36 @@
         <v>19</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2258,7 +2276,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>21</v>
@@ -2267,68 +2285,68 @@
         <v>21</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="J30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>19</v>
@@ -2350,20 +2368,20 @@
       <c r="A32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>12</v>
@@ -2372,36 +2390,36 @@
         <v>19</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="C33" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2410,7 +2428,7 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>21</v>
@@ -2419,27 +2437,27 @@
         <v>21</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2448,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2457,36 +2475,36 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>21</v>
@@ -2495,18 +2513,18 @@
         <v>21</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>209</v>
@@ -2515,36 +2533,36 @@
         <v>210</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>215</v>
@@ -2553,7 +2571,7 @@
         <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>12</v>
@@ -2562,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>21</v>
@@ -2571,27 +2589,27 @@
         <v>21</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2600,7 +2618,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -2609,27 +2627,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2638,7 +2656,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -2647,27 +2665,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2676,7 +2694,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -2685,27 +2703,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2714,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -2723,27 +2741,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2752,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -2761,18 +2779,18 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>235</v>
@@ -2781,7 +2799,7 @@
         <v>236</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2790,7 +2808,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -2799,27 +2817,27 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -2828,7 +2846,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -2837,15 +2855,15 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>245</v>
@@ -2876,6 +2894,44 @@
       </c>
       <c r="L45" s="6" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2901,22 +2957,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -275,7 +275,7 @@
     <t>Fuse_Small</t>
   </si>
   <si>
-    <t>F2 F3</t>
+    <t>F2 F3 F4 F5</t>
   </si>
   <si>
     <t>~</t>
@@ -827,7 +827,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>74 (2 SMD/ 70 THT)</t>
+    <t>76 (4 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1449,7 +1449,7 @@
         <v>272</v>
       </c>
       <c r="F6" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1852,7 +1852,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>19</v>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -806,7 +806,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0-RC1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -806,7 +806,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -818,7 +818,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="283">
   <si>
     <t>Row</t>
   </si>
@@ -377,6 +377,24 @@
     <t>15</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>PinHeader_2x02_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300621021/4846834</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -422,7 +440,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-devices/SJ1-3525NG/738690</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -446,7 +464,7 @@
     <t>https://www.digikey.ch/de/products/detail/switchcraft-inc/57PC5F/275385</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -470,7 +488,7 @@
     <t>https://www.digikey.ch/de/products/detail/mill-max-manufacturing-corp/0906-0-15-20-76-14-11-0/1147048</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -494,7 +512,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61300311021/4846824</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>J7</t>
@@ -512,7 +530,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/61304021121/4846886</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -533,7 +551,7 @@
     <t>https://www.digikey.ch/de/products/detail/gct/USB1061-GF-L-A/10649776</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -557,7 +575,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/7447471022/2794428</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -581,7 +599,7 @@
     <t>https://www.digikey.ch/en/products/detail/fair-rite-products-corp/2743005111/8599429</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -599,7 +617,7 @@
     <t>https://www.digikey.ch/de/products/detail/cui-inc/PDQE15-Q24-S5-D/10230147</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -620,7 +638,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C100J/13537327</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R3</t>
@@ -632,7 +650,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C330J/13537493</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R1</t>
@@ -644,7 +662,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C221J/13537314</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -656,7 +674,7 @@
     <t>https://www.digikey.ch/de/products/detail/koa-speer-electronics-inc/CF1-4C471J/13537235</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -680,7 +698,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/430466043726/5209037</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW5</t>
@@ -689,25 +707,25 @@
     <t>B</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW6</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW3</t>
@@ -716,7 +734,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -740,7 +758,7 @@
     <t>https://www.digikey.ch/de/products/detail/w%C3%BCrth-elektronik/482016514001/10056402</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>SW7</t>
@@ -749,7 +767,7 @@
     <t>VOL Rotary</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -770,7 +788,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>Pico</t>
@@ -827,7 +845,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>82 (4 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1345,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1370,7 +1388,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1384,55 +1402,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1440,16 +1458,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2022,7 +2040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="60" customHeight="1">
+    <row r="23" spans="1:12" ht="45" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -2042,80 +2060,80 @@
         <v>123</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="H24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>18</v>
@@ -2124,7 +2142,7 @@
         <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>21</v>
@@ -2133,65 +2151,65 @@
         <v>21</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="J26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
@@ -2200,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>21</v>
@@ -2209,18 +2227,18 @@
         <v>21</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>159</v>
@@ -2255,19 +2273,19 @@
         <v>164</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>12</v>
@@ -2276,36 +2294,36 @@
         <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>12</v>
@@ -2314,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>21</v>
@@ -2323,68 +2341,68 @@
         <v>21</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>190</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>19</v>
@@ -2406,20 +2424,20 @@
       <c r="A33" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>12</v>
@@ -2428,36 +2446,36 @@
         <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -2466,7 +2484,7 @@
         <v>19</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>21</v>
@@ -2475,27 +2493,27 @@
         <v>21</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>12</v>
@@ -2504,7 +2522,7 @@
         <v>19</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>21</v>
@@ -2513,36 +2531,36 @@
         <v>21</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>21</v>
@@ -2551,18 +2569,18 @@
         <v>21</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>215</v>
@@ -2571,36 +2589,36 @@
         <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>221</v>
@@ -2609,7 +2627,7 @@
         <v>222</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>12</v>
@@ -2618,7 +2636,7 @@
         <v>19</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>21</v>
@@ -2627,27 +2645,27 @@
         <v>21</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>12</v>
@@ -2656,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>21</v>
@@ -2665,27 +2683,27 @@
         <v>21</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -2694,7 +2712,7 @@
         <v>19</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>21</v>
@@ -2703,27 +2721,27 @@
         <v>21</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>12</v>
@@ -2732,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>21</v>
@@ -2741,27 +2759,27 @@
         <v>21</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>12</v>
@@ -2770,7 +2788,7 @@
         <v>19</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>21</v>
@@ -2779,27 +2797,27 @@
         <v>21</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>12</v>
@@ -2808,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>21</v>
@@ -2817,18 +2835,18 @@
         <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>241</v>
@@ -2837,7 +2855,7 @@
         <v>242</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>12</v>
@@ -2846,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>21</v>
@@ -2855,27 +2873,27 @@
         <v>21</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>12</v>
@@ -2884,7 +2902,7 @@
         <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>21</v>
@@ -2893,15 +2911,15 @@
         <v>21</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>251</v>
@@ -2932,6 +2950,44 @@
       </c>
       <c r="L46" s="10" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2957,22 +3013,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="286">
   <si>
     <t>Row</t>
   </si>
@@ -227,7 +229,7 @@
     <t>NeoPixel_THT</t>
   </si>
   <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
+    <t>D1 D2 D3 D4</t>
   </si>
   <si>
     <t>NEOPIX</t>
@@ -236,39 +238,39 @@
     <t>LED_D5.0mm-NeoPixel</t>
   </si>
   <si>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/sparkfun-electronics/COM-12999/5673800</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/bel-fuse-inc/0ZRP0090FF1E/9468255</t>
-  </si>
-  <si>
     <t>Fuse, small symbol</t>
   </si>
   <si>
@@ -389,7 +391,7 @@
     <t>LED-Ring</t>
   </si>
   <si>
-    <t>PinHeader_2x02_P2.00mm_Vertical</t>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>16</t>
@@ -851,10 +853,19 @@
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>76 (4 SMD/ 70 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>D5 D6 D7 D8 D9 D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1027,6 +1038,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1411,7 +1474,7 @@
         <v>273</v>
       </c>
       <c r="F2" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1439,7 +1502,7 @@
         <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1450,7 +1513,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1464,10 +1527,10 @@
         <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1794,42 +1857,42 @@
         <v>71</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -1838,21 +1901,21 @@
         <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>83</v>
@@ -2472,7 +2535,7 @@
         <v>202</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>203</v>
@@ -3002,6 +3065,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="C2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3013,22 +3271,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -838,7 +838,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
+    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -3077,7 +3077,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="310">
   <si>
     <t>Row</t>
   </si>
@@ -58,6 +58,36 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>DigiKey_Part_Number</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Purchase-URL</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>OC_FARNELL</t>
+  </si>
+  <si>
+    <t>SnapEDA_Link</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>OC_NEWARK</t>
+  </si>
+  <si>
+    <t>Check_prices</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -772,6 +802,48 @@
     <t>38</t>
   </si>
   <si>
+    <t>OR Gate IC 1 Channel - SOT-353</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Diodes INC</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7DITR-ND</t>
+  </si>
+  <si>
+    <t>Diodes Inc.</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/api/url_track_click_mouser/?unipart_id=579086&amp;manufacturer=Diodes Inc.&amp;part_name=74AHCT1G32SE-7&amp;search_term=None</t>
+  </si>
+  <si>
+    <t>SOT-353-5 SOT-353 Diodes Inc.</t>
+  </si>
+  <si>
+    <t>2057398</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/parts/74AHCT1G32SE-7/Diodes+Inc./view-part/?ref=snap</t>
+  </si>
+  <si>
+    <t>64T4877</t>
+  </si>
+  <si>
+    <t>https://www.snapeda.com/parts/74AHCT1G32SE-7/Diodes+Inc./view-part/?ref=eda</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -790,7 +862,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/H11L1M/284866</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>Pico</t>
@@ -847,13 +919,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>82 (4 SMD/ 76 THT)</t>
+    <t>83 (5 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>77 (5 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1426,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1447,11 +1519,21 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="60.7109375" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="60.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1462,78 +1544,88 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1570,1492 +1662,2760 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="60" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="45" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="60" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="30" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="30" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="30" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="30" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="30" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="F40" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="I40" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="I41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="D42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="G42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="J42" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1">
+        <v>235</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1">
+      <c r="M43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
+        <v>255</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1">
+        <v>255</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="45" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>254</v>
+        <v>29</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1">
+        <v>264</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>21</v>
+        <v>273</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>261</v>
+        <v>279</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="30" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3065,7 +4425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -3086,11 +4446,21 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1">
+    <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3101,78 +4471,88 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -3209,48 +4589,108 @@
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3271,22 +4711,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -898,13 +898,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0-RC1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-03-12</t>
+    <t>2023-09-10</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/pedalboard-hw-bom.xlsx
+++ b/BoM/Generic/pedalboard-hw-bom.xlsx
@@ -898,7 +898,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>3.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
